--- a/results/serial/SA_rastrigin_parametric.xlsx
+++ b/results/serial/SA_rastrigin_parametric.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C3339-82E0-4443-9530-CC49687D742C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD65684-6121-4BB5-8CB0-54D00AF59BC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>rastrigin</t>
   </si>
@@ -66,12 +71,15 @@
   <si>
     <t>alpha = 0.85</t>
   </si>
+  <si>
+    <t>MATLAB D10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +118,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +141,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,18 +173,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1326,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,6 +2299,72 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1195.2655604779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1050.42992049646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>909.85123221409697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>898.99680897117196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>967.69906342915101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>896.30141354022703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>986.19484717538205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>986.40222516583799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>908.47398313498502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>961.84659731601005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f>AVERAGE(A30:A39)</f>
+        <v>976.14616519212211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>9.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
